--- a/Data/Output/DE763212_2021/Yearly-Report-2021-DE763212.xlsx
+++ b/Data/Output/DE763212_2021/Yearly-Report-2021-DE763212.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -37,166 +37,148 @@
     <x:t>Currency</x:t>
   </x:si>
   <x:si>
-    <x:t>868074</x:t>
+    <x:t>440349</x:t>
   </x:si>
   <x:si>
     <x:t>Beverages and Catering</x:t>
   </x:si>
   <x:si>
-    <x:t>2017-01-19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95370</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19074</x:t>
-  </x:si>
-  <x:si>
-    <x:t>114444</x:t>
+    <x:t>2017-01-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>267151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53430.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>320581</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>326154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waste management services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>185066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37013.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>222079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>775647</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85366</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17073.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102439</x:t>
+  </x:si>
+  <x:si>
+    <x:t>278636</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Various paper supplies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>175991</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35198.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>211189</x:t>
   </x:si>
   <x:si>
     <x:t>RON</x:t>
   </x:si>
   <x:si>
-    <x:t>917201</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-03-12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35443</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7088.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42531.6</x:t>
+    <x:t>827106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>108550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21710</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130260</x:t>
+  </x:si>
+  <x:si>
+    <x:t>635149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT Support</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17237.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103427</x:t>
   </x:si>
   <x:si>
     <x:t>EUR</x:t>
   </x:si>
   <x:si>
-    <x:t>286340</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Concierge Services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-03-23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88971</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17794.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>106765</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>835132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Professional Services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-04-26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>116673</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23334.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>747460</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-06-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117539</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23507.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141047</x:t>
-  </x:si>
-  <x:si>
-    <x:t>310708</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Various paper supplies</x:t>
+    <x:t>610718</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91539</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18307.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>109847</x:t>
+  </x:si>
+  <x:si>
+    <x:t>334874</x:t>
   </x:si>
   <x:si>
     <x:t>2017-07-26</x:t>
   </x:si>
   <x:si>
-    <x:t>102993</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20598.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123592</x:t>
-  </x:si>
-  <x:si>
-    <x:t>567082</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-07-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>178254</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35650.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>213905</x:t>
-  </x:si>
-  <x:si>
-    <x:t>585499</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-08-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11623.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69742.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>353496</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waste management services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-08-09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>294887</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58977.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>353864</x:t>
+    <x:t>216196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43239.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>259435</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -547,7 +529,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G10"/>
+  <x:dimension ref="A1:G9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -604,30 +586,30 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
         <x:v>22</x:v>
@@ -642,76 +624,76 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="D5" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="E5" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="F5" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="G5" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="D6" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="E6" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="s">
+      <x:c r="F6" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="D7" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="E7" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
+      <x:c r="F7" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s">
+      <x:c r="G7" s="0" t="s">
         <x:v>44</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
@@ -719,7 +701,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>46</x:v>
@@ -734,7 +716,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
@@ -742,7 +724,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>51</x:v>
@@ -757,30 +739,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:7">
-      <x:c r="A10" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
